--- a/Team-Data/2011-12/4-25-2011-12.xlsx
+++ b/Team-Data/2011-12/4-25-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -780,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -798,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>10</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>2.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -938,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -956,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
@@ -983,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -1030,52 +1097,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="n">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="J4" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M4" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N4" t="n">
         <v>0.293</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T4" t="n">
         <v>39</v>
@@ -1087,28 +1154,28 @@
         <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X4" t="n">
         <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.8</v>
+        <v>-13.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1141,7 +1208,7 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
@@ -1159,22 +1226,22 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,7 +1297,7 @@
         <v>37.3</v>
       </c>
       <c r="J5" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.45</v>
@@ -1245,19 +1312,19 @@
         <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P5" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R5" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
         <v>46.5</v>
@@ -1269,28 +1336,28 @@
         <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>5.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
         <v>17.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,13 +1372,13 @@
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="n">
-        <v>0.323</v>
+        <v>0.328</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,31 +1479,31 @@
         <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.423</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
         <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
         <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.717</v>
       </c>
       <c r="R6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
         <v>29.6</v>
@@ -1460,25 +1527,25 @@
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>-6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1520,7 +1587,7 @@
         <v>22</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>21</v>
@@ -1538,13 +1605,13 @@
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1699,7 +1766,7 @@
         <v>27</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
         <v>9</v>
@@ -1720,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,10 +1843,10 @@
         <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
@@ -1788,22 +1855,22 @@
         <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O8" t="n">
         <v>19.7</v>
       </c>
       <c r="P8" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T8" t="n">
         <v>43</v>
@@ -1821,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z8" t="n">
         <v>19.6</v>
@@ -1833,10 +1900,10 @@
         <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
@@ -1884,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -2030,7 +2097,7 @@
         <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
@@ -2048,10 +2115,10 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>14</v>
@@ -2060,7 +2127,7 @@
         <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>9</v>
@@ -2245,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>28</v>
@@ -2254,7 +2321,7 @@
         <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW10" t="n">
         <v>11</v>
@@ -2263,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2397,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2454,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>42</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.636</v>
+        <v>0.646</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
@@ -2504,7 +2571,7 @@
         <v>35.7</v>
       </c>
       <c r="J12" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,34 +2580,34 @@
         <v>5.9</v>
       </c>
       <c r="M12" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N12" t="n">
         <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
         <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U12" t="n">
         <v>18.6</v>
       </c>
       <c r="V12" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W12" t="n">
         <v>7.9</v>
@@ -2552,16 +2619,16 @@
         <v>6</v>
       </c>
       <c r="Z12" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AA12" t="n">
         <v>21.7</v>
       </c>
-      <c r="AA12" t="n">
-        <v>21.6</v>
-      </c>
       <c r="AB12" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2582,7 +2649,7 @@
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2612,19 +2679,19 @@
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.606</v>
+        <v>0.615</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,31 +2753,31 @@
         <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
         <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P13" t="n">
         <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.68</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S13" t="n">
         <v>29.4</v>
@@ -2725,7 +2792,7 @@
         <v>13.3</v>
       </c>
       <c r="W13" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>4.8</v>
@@ -2737,13 +2804,13 @@
         <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2752,19 +2819,19 @@
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>10</v>
@@ -2782,19 +2849,19 @@
         <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -2806,7 +2873,7 @@
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>1.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
@@ -2946,7 +3013,7 @@
         <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
@@ -2970,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>7</v>
@@ -3122,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3313,7 +3380,7 @@
         <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL16" t="n">
         <v>20</v>
@@ -3343,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.477</v>
+        <v>0.484</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J17" t="n">
         <v>85.8</v>
@@ -3423,58 +3490,58 @@
         <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P17" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.777</v>
       </c>
       <c r="R17" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T17" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U17" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V17" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3507,10 +3574,10 @@
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ17" t="n">
         <v>7</v>
@@ -3519,22 +3586,22 @@
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
         <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>5</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3668,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>22</v>
@@ -3680,7 +3747,7 @@
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3698,13 +3765,13 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3716,10 +3783,10 @@
         <v>26</v>
       </c>
       <c r="AX18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY18" t="n">
         <v>24</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>25</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3850,7 +3917,7 @@
         <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3868,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3895,25 +3962,25 @@
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4056,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>13</v>
@@ -4080,13 +4147,13 @@
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
         <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.538</v>
+        <v>0.531</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4151,7 +4218,7 @@
         <v>7.8</v>
       </c>
       <c r="M21" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N21" t="n">
         <v>0.335</v>
@@ -4166,19 +4233,19 @@
         <v>0.743</v>
       </c>
       <c r="R21" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S21" t="n">
         <v>30.5</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
         <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
@@ -4196,22 +4263,22 @@
         <v>21.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC21" t="n">
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>4</v>
@@ -4238,7 +4305,7 @@
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ21" t="n">
         <v>21</v>
@@ -4265,7 +4332,7 @@
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
         <v>47</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.712</v>
+        <v>0.723</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4327,22 +4394,22 @@
         <v>79.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q22" t="n">
         <v>0.806</v>
@@ -4351,28 +4418,28 @@
         <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U22" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V22" t="n">
         <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="Y22" t="n">
         <v>4.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
         <v>20</v>
@@ -4381,7 +4448,7 @@
         <v>103.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4405,10 +4472,10 @@
         <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
         <v>13</v>
@@ -4429,7 +4496,7 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4450,7 +4517,7 @@
         <v>13</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
         <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J23" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.377</v>
       </c>
       <c r="O23" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P23" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.66</v>
+        <v>0.658</v>
       </c>
       <c r="R23" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S23" t="n">
         <v>31.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
@@ -4554,19 +4621,19 @@
         <v>4.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -4587,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4617,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV23" t="n">
         <v>18</v>
@@ -4632,10 +4699,10 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
         <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.538</v>
+        <v>0.531</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,10 +4755,10 @@
         <v>37.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L24" t="n">
         <v>5.3</v>
@@ -4700,7 +4767,7 @@
         <v>14.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O24" t="n">
         <v>13.5</v>
@@ -4712,13 +4779,13 @@
         <v>0.741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
         <v>22</v>
@@ -4727,19 +4794,19 @@
         <v>11.2</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X24" t="n">
         <v>5.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
         <v>93.8</v>
@@ -4748,16 +4815,16 @@
         <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
@@ -4790,13 +4857,13 @@
         <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4805,16 +4872,16 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
         <v>13</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -4852,49 +4919,49 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J25" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O25" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.757</v>
       </c>
       <c r="R25" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
         <v>30.8</v>
@@ -4903,13 +4970,13 @@
         <v>41.7</v>
       </c>
       <c r="U25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
@@ -4924,7 +4991,7 @@
         <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.2</v>
@@ -4936,19 +5003,19 @@
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4960,13 +5027,13 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4984,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4996,13 +5063,13 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5142,13 +5209,13 @@
         <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5175,13 +5242,13 @@
         <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>8</v>
@@ -5330,19 +5397,19 @@
         <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,7 +5483,7 @@
         <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.479</v>
@@ -5428,16 +5495,16 @@
         <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.395</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P28" t="n">
         <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R28" t="n">
         <v>10.2</v>
@@ -5455,28 +5522,28 @@
         <v>13.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
@@ -5533,13 +5600,13 @@
         <v>3</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5670,7 +5737,7 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>29</v>
@@ -5691,16 +5758,16 @@
         <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
         <v>12</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.292</v>
+        <v>0.281</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.439</v>
@@ -5974,7 +6041,7 @@
         <v>16.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
         <v>15.3</v>
@@ -5986,13 +6053,13 @@
         <v>0.729</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
         <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U31" t="n">
         <v>19</v>
@@ -6001,13 +6068,13 @@
         <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
         <v>6.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z31" t="n">
         <v>21.3</v>
@@ -6016,13 +6083,13 @@
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.4</v>
+        <v>-5.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6058,19 +6125,19 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
@@ -6097,7 +6164,7 @@
         <v>24</v>
       </c>
       <c r="BC31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-25-2011-12</t>
+          <t>2012-04-25</t>
         </is>
       </c>
     </row>
